--- a/10_inputFiles/30_siteOverview/siteOverview.xlsx
+++ b/10_inputFiles/30_siteOverview/siteOverview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuFI_LF\seadrive_root\Lukas Fr\Meine Bibliotheken\GitLab\seegangsmodul\00_inputFiles\30_siteOverview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuFI_LF\seadrive_root\froehlin\Meine Bibliotheken\GitLab\Seegangsmodul\10_inputFiles\30_siteOverview\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
